--- a/result_1/Transactions Ordering.xlsx
+++ b/result_1/Transactions Ordering.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙文翔\Desktop\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD2A9D-FACC-4684-A53C-CFDF81F89A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C265C8-E8F5-465A-8C5F-2FBAEF20F7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,19 +440,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -470,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -478,30 +472,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,15 +782,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1504,7 +1479,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/result_1/Transactions Ordering.xlsx
+++ b/result_1/Transactions Ordering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C265C8-E8F5-465A-8C5F-2FBAEF20F7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C4C31C-4FCA-4272-9F33-92EC2CD91615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16344" yWindow="3648" windowWidth="12144" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
